--- a/pred_ohlcv/54_21/2019-11-13 WOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 WOM ohlcv.xlsx
@@ -4084,7 +4084,7 @@
         <v>-148777.1919037193</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-147232.2320037193</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-110756.4270037193</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-104434.9280037193</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-71540.66182820909</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>16703.70777247119</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>436.8643724711876</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-386.1808275288124</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-67.85832752881241</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1009.248827528812</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-14179.02612752881</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-22017.85362752881</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-27284.04762752881</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-27284.04762752881</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-27284.04762752881</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-12921.62592752881</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-12927.62592752881</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-13 WOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 WOM ohlcv.xlsx
@@ -4084,7 +4084,7 @@
         <v>-148777.1919037193</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-147232.2320037193</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-147232.2320037193</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-147232.2320037193</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-129414.4913037193</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-110756.4270037193</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-104434.9280037193</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-71540.66182820909</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>16703.70777247119</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1077.619427528812</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>436.8643724711876</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>436.8643724711876</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>436.8643724711876</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>436.8643724711876</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>436.8643724711876</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-386.1808275288124</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-67.85832752881241</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-67.85832752881241</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1009.248827528812</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-14179.02612752881</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-22017.85362752881</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-21302.97982752881</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-21302.97982752881</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-22662.52022752881</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-27284.04762752881</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-27284.04762752881</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-27284.04762752881</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-12921.62592752881</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-12927.62592752881</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
